--- a/Scholarships.xlsx
+++ b/Scholarships.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15320" windowHeight="15680" tabRatio="500"/>
+    <workbookView xWindow="9740" yWindow="100" windowWidth="15320" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>Scholarship</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Florida Engineering Society</t>
+  </si>
+  <si>
+    <t>fall 2014</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,6 +162,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -167,7 +181,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -179,6 +193,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -514,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -914,6 +936,37 @@
       <c r="D28" s="3">
         <v>721</v>
       </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5">
+        <v>41895</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5">
+        <v>41892</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="D32" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:D54">
